--- a/VersionRecords/Version 5.2.2/版本Bug和特性计划及评审表v5.2.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.2/版本Bug和特性计划及评审表v5.2.2_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -289,6 +289,22 @@
   </si>
   <si>
     <t>星赞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>良杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东专享角色无法创建</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1407,7 @@
   <dimension ref="A1:W169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1546,25 +1562,57 @@
       <c r="W2" s="54"/>
     </row>
     <row r="3" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="39"/>
+      <c r="L3" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="S3" s="79">
+        <v>7018</v>
+      </c>
       <c r="T3" s="44"/>
       <c r="U3" s="52"/>
       <c r="V3" s="53"/>
@@ -5430,7 +5478,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:I4 I5:I1048576 I1:I3 U1:U1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:I4 I5:I1048576 U1:U1048576 G1:G1048576 I1:I3">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
@@ -5454,6 +5502,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7002"/>
+    <hyperlink ref="S3" r:id="rId2" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7018"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
